--- a/data/trans_orig/P32B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6349</v>
+        <v>6991</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006024951964524722</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02118097816963212</v>
+        <v>0.02332242787367771</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6955</v>
+        <v>7416</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01155747332169504</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03810107384966906</v>
+        <v>0.04062690627686225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>3916</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10584</v>
+        <v>9710</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00811902182192328</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00195763995930585</v>
+        <v>0.001942304940758552</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02194523584493697</v>
+        <v>0.02013382500001037</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>297928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>293385</v>
+        <v>292743</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>299734</v>
@@ -824,7 +824,7 @@
         <v>0.9939750480354753</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9788190218303683</v>
+        <v>0.9766775721263212</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>180433</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>175588</v>
+        <v>175127</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>182543</v>
@@ -845,7 +845,7 @@
         <v>0.988442526678305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.961898926150331</v>
+        <v>0.9593730937231377</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>478361</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>471693</v>
+        <v>472567</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>481333</v>
+        <v>481340</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9918809781780767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.978054764155064</v>
+        <v>0.9798661749999897</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9980423600406941</v>
+        <v>0.9980576950592415</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>4369</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10725</v>
+        <v>11244</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006906409505712872</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001531361560317586</v>
+        <v>0.001534418204325023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01695244777749272</v>
+        <v>0.01777246472767711</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7177</v>
+        <v>7119</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008149143089112845</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02897424285241473</v>
+        <v>0.02874006297425412</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1003,19 +1003,19 @@
         <v>6388</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2432</v>
+        <v>2933</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13364</v>
+        <v>14131</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007256083023562773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002762496222064007</v>
+        <v>0.003331633916215286</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01517977528141547</v>
+        <v>0.01605137372431573</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>628295</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>621939</v>
+        <v>621420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>631695</v>
+        <v>631693</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9930935904942871</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9830475522225073</v>
+        <v>0.982227535272323</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9984686384396824</v>
+        <v>0.998465581795675</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>238</v>
@@ -1053,7 +1053,7 @@
         <v>245697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>240539</v>
+        <v>240597</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>247716</v>
@@ -1062,7 +1062,7 @@
         <v>0.9918508569108871</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9710257571475853</v>
+        <v>0.971259937025746</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>873992</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>867016</v>
+        <v>866249</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>877948</v>
+        <v>877447</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9927439169764373</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9848202247185849</v>
+        <v>0.9839486262756836</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9972375037779362</v>
+        <v>0.9966683660837846</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6512</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2752</v>
+        <v>2622</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14188</v>
+        <v>14064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009923155328349574</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004193387989859482</v>
+        <v>0.00399557057292074</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02162030336306986</v>
+        <v>0.02143137983982036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7763</v>
+        <v>7633</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006978318929916271</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02450765316998871</v>
+        <v>0.02409821331371411</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1220,19 +1220,19 @@
         <v>8722</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4086</v>
+        <v>3834</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16871</v>
+        <v>17050</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00896448021352041</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00419975195937483</v>
+        <v>0.003940617939899406</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01733957250549776</v>
+        <v>0.01752366537352444</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>649723</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>642047</v>
+        <v>642171</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>653483</v>
+        <v>653613</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9900768446716505</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9783796966369301</v>
+        <v>0.9785686201601799</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9958066120101405</v>
+        <v>0.9960044294270792</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>310</v>
@@ -1270,7 +1270,7 @@
         <v>314540</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>308987</v>
+        <v>309117</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>316750</v>
@@ -1279,7 +1279,7 @@
         <v>0.9930216810700837</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9754923468300113</v>
+        <v>0.9759017866862859</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>964263</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>956114</v>
+        <v>955935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>968899</v>
+        <v>969151</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9910355197864796</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9826604274945022</v>
+        <v>0.9824763346264757</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9958002480406252</v>
+        <v>0.9960593820601007</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4929</v>
+        <v>4936</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003510932822059367</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01782559191501135</v>
+        <v>0.01785345029769307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6245</v>
+        <v>7596</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01540057398947136</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04701509695544307</v>
+        <v>0.05718755907731731</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1437,19 +1437,19 @@
         <v>3016</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8271</v>
+        <v>8101</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007369182714392727</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00237066392139082</v>
+        <v>0.002323102603156234</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02020742998397903</v>
+        <v>0.01979022079932519</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>275525</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>271567</v>
+        <v>271560</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>276496</v>
@@ -1475,7 +1475,7 @@
         <v>0.9964890671779406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9821744080849887</v>
+        <v>0.982146549702307</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>130781</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>126582</v>
+        <v>125231</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>132827</v>
@@ -1496,7 +1496,7 @@
         <v>0.9845994260105286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9529849030445567</v>
+        <v>0.9428124409226847</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>406307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>401052</v>
+        <v>401222</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>408353</v>
+        <v>408372</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9926308172856073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9797925700160206</v>
+        <v>0.9802097792006752</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9976293360786092</v>
+        <v>0.9976768973968437</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>13658</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7445</v>
+        <v>7493</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23338</v>
+        <v>23673</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007322818750343009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003991730934081699</v>
+        <v>0.004017321255853033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01251302831056319</v>
+        <v>0.01269236820975236</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1633,19 +1633,19 @@
         <v>8384</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4143</v>
+        <v>4039</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15943</v>
+        <v>16526</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009529509485584578</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004709199611185757</v>
+        <v>0.004590180188940664</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01812007082451359</v>
+        <v>0.01878356764185522</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1654,19 +1654,19 @@
         <v>22042</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13683</v>
+        <v>14345</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33867</v>
+        <v>34338</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008030123594369987</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00498463319402283</v>
+        <v>0.005226083830905457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0123377624586268</v>
+        <v>0.01250957511871593</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1851470</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1841790</v>
+        <v>1841455</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1857683</v>
+        <v>1857635</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.992677181249657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9874869716894369</v>
+        <v>0.9873076317902477</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9960082690659183</v>
+        <v>0.995982678744147</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>852</v>
@@ -1704,19 +1704,19 @@
         <v>871452</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>863893</v>
+        <v>863310</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>875693</v>
+        <v>875797</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9904704905144154</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9818799291754874</v>
+        <v>0.9812164323581449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9952908003888143</v>
+        <v>0.9954098198110594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2668</v>
@@ -1725,19 +1725,19 @@
         <v>2722922</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2711097</v>
+        <v>2710626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2731281</v>
+        <v>2730619</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9919698764056301</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9876622375413737</v>
+        <v>0.9874904248812846</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9950153668059772</v>
+        <v>0.9947739161690948</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>22275</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14441</v>
+        <v>14206</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34991</v>
+        <v>34111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03688544496595213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02391252516784232</v>
+        <v>0.02352468075155185</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05794197060225338</v>
+        <v>0.05648489083522196</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5199</v>
+        <v>5364</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003350781947918854</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01839161758472661</v>
+        <v>0.01897217796530537</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -2111,19 +2111,19 @@
         <v>23222</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14325</v>
+        <v>15334</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34554</v>
+        <v>35667</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02619234035746356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01615764903932799</v>
+        <v>0.0172949736796239</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03897375129576528</v>
+        <v>0.04022904626655679</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>581614</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>568898</v>
+        <v>569778</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>589448</v>
+        <v>589683</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9631145550340479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9420580293977467</v>
+        <v>0.9435151091647783</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.976087474832158</v>
+        <v>0.9764753192484482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>257</v>
@@ -2161,7 +2161,7 @@
         <v>281759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>277507</v>
+        <v>277342</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>282706</v>
@@ -2170,7 +2170,7 @@
         <v>0.9966492180520812</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9816083824152716</v>
+        <v>0.9810278220346945</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2182,19 +2182,19 @@
         <v>863373</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>852041</v>
+        <v>850928</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>872270</v>
+        <v>871261</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9738076596425365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9610262487042345</v>
+        <v>0.9597709537334431</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.983842350960672</v>
+        <v>0.982705026320376</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>14411</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8146</v>
+        <v>9079</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22661</v>
+        <v>23216</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02446494533343206</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01382951647324534</v>
+        <v>0.01541228155369253</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03846963498489558</v>
+        <v>0.03941251186273162</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2307,19 +2307,19 @@
         <v>3300</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>163</v>
+        <v>1023</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7919</v>
+        <v>9031</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0103742640816738</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0005121419454750184</v>
+        <v>0.00321763297796062</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0248958074170653</v>
+        <v>0.02839359203481651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -2328,19 +2328,19 @@
         <v>17711</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10780</v>
+        <v>10251</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27344</v>
+        <v>27144</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0195242645790346</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0118840781454595</v>
+        <v>0.01130003130581987</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03014367980021793</v>
+        <v>0.02992248444633852</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>574649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>566399</v>
+        <v>565844</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>580914</v>
+        <v>579981</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.975535054666568</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9615303650151045</v>
+        <v>0.9605874881372684</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9861704835267548</v>
+        <v>0.9845877184463074</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>291</v>
@@ -2378,19 +2378,19 @@
         <v>314772</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>310153</v>
+        <v>309041</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317909</v>
+        <v>317049</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9896257359183261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9751041925829348</v>
+        <v>0.9716064079651836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9994878580545278</v>
+        <v>0.9967823670220394</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>834</v>
@@ -2399,19 +2399,19 @@
         <v>889421</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>879788</v>
+        <v>879988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>896352</v>
+        <v>896881</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9804757354209654</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9698563201997823</v>
+        <v>0.9700775155536613</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9881159218545406</v>
+        <v>0.9886999686941801</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>13287</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6774</v>
+        <v>7305</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23858</v>
+        <v>24689</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02428571948116947</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01238208455140576</v>
+        <v>0.01335309735744405</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04360809743194421</v>
+        <v>0.04512750342488927</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2524,19 +2524,19 @@
         <v>2959</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7851</v>
+        <v>8728</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01068240465074151</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003465065172215204</v>
+        <v>0.003489164625262752</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0283370997454058</v>
+        <v>0.03150431913866952</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -2545,19 +2545,19 @@
         <v>16246</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9229</v>
+        <v>9202</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27465</v>
+        <v>27308</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01971283810602107</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01119893528015217</v>
+        <v>0.01116522285786673</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03332537758577379</v>
+        <v>0.03313552954118332</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>533808</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>523237</v>
+        <v>522406</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540321</v>
+        <v>539790</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9757142805188306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9563919025680557</v>
+        <v>0.9548724965751106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9876179154485942</v>
+        <v>0.9866469026425559</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>258</v>
@@ -2595,19 +2595,19 @@
         <v>274082</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>269190</v>
+        <v>268313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>276081</v>
+        <v>276074</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9893175953492584</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9716629002545942</v>
+        <v>0.9684956808613306</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9965349348277848</v>
+        <v>0.9965108353747373</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>762</v>
@@ -2616,19 +2616,19 @@
         <v>807890</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>796671</v>
+        <v>796828</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>814907</v>
+        <v>814934</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9802871618939789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9666746224142261</v>
+        <v>0.9668644704588166</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9888010647198479</v>
+        <v>0.9888347771421331</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>8489</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3666</v>
+        <v>3728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16894</v>
+        <v>16228</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02877836645879456</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01242933604571949</v>
+        <v>0.01263686537840145</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05727068631557408</v>
+        <v>0.05501357279169656</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -2754,19 +2754,19 @@
         <v>8489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4238</v>
+        <v>3916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17265</v>
+        <v>16674</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01835569355013974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009162793293479176</v>
+        <v>0.008468240125509872</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03733183624967483</v>
+        <v>0.03605535588622126</v>
       </c>
     </row>
     <row r="14">
@@ -2783,19 +2783,19 @@
         <v>286488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>278083</v>
+        <v>278749</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>291311</v>
+        <v>291249</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9712216335412054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9427293136844247</v>
+        <v>0.9449864272083033</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9875706639542805</v>
+        <v>0.9873631346215977</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>147</v>
@@ -2817,19 +2817,19 @@
         <v>453980</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>445204</v>
+        <v>445795</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>458231</v>
+        <v>458553</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9816443064498602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9626681637503254</v>
+        <v>0.9639446441137789</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.990837206706521</v>
+        <v>0.9915317598744902</v>
       </c>
     </row>
     <row r="15">
@@ -2921,19 +2921,19 @@
         <v>58462</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45600</v>
+        <v>44491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76555</v>
+        <v>75079</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02872775595483359</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02240739949644242</v>
+        <v>0.02186264486892662</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03761873366824832</v>
+        <v>0.03689358491643654</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -2942,19 +2942,19 @@
         <v>7207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3061</v>
+        <v>3026</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14530</v>
+        <v>14363</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006894128101051301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002928626822430458</v>
+        <v>0.002894420787385138</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01389995101759996</v>
+        <v>0.01374028508526989</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -2963,19 +2963,19 @@
         <v>65668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50202</v>
+        <v>50747</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82960</v>
+        <v>83959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02131850787975102</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01629746616160213</v>
+        <v>0.01647461728991308</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02693218157584418</v>
+        <v>0.02725633434159109</v>
       </c>
     </row>
     <row r="17">
@@ -2992,19 +2992,19 @@
         <v>1976559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1958466</v>
+        <v>1959942</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1989421</v>
+        <v>1990530</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9712722440451664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9623812663317515</v>
+        <v>0.9631064150835634</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9775926005035576</v>
+        <v>0.9781373551310734</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>953</v>
@@ -3013,19 +3013,19 @@
         <v>1038105</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1030782</v>
+        <v>1030949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1042251</v>
+        <v>1042286</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9931058718989487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9861000489824</v>
+        <v>0.9862597149147299</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9970713731775694</v>
+        <v>0.9971055792126148</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2813</v>
@@ -3034,19 +3034,19 @@
         <v>3014664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2997372</v>
+        <v>2996373</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3030130</v>
+        <v>3029585</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.978681492120249</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9730678184241556</v>
+        <v>0.9727436656584089</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9837025338383978</v>
+        <v>0.9835253827100869</v>
       </c>
     </row>
     <row r="18">
@@ -3378,19 +3378,19 @@
         <v>17696</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10181</v>
+        <v>11041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28191</v>
+        <v>30019</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0298522883430907</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01717483840641399</v>
+        <v>0.01862515980903742</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0475574476536776</v>
+        <v>0.05064043044872867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3399,19 +3399,19 @@
         <v>3135</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8359</v>
+        <v>8485</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009474913053394702</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002990814018229848</v>
+        <v>0.003026210819940831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02525860610718785</v>
+        <v>0.02563931720459715</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -3420,19 +3420,19 @@
         <v>20832</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12716</v>
+        <v>12637</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32354</v>
+        <v>31598</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02255203860280208</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01376583417102716</v>
+        <v>0.01368093725456774</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03502605251542605</v>
+        <v>0.03420751403042609</v>
       </c>
     </row>
     <row r="5">
@@ -3449,19 +3449,19 @@
         <v>575092</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>564597</v>
+        <v>562769</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>582607</v>
+        <v>581747</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9701477116569093</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9524425523463212</v>
+        <v>0.9493595695512718</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9828251615935859</v>
+        <v>0.9813748401909625</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>316</v>
@@ -3470,19 +3470,19 @@
         <v>327786</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>322562</v>
+        <v>322436</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>329931</v>
+        <v>329920</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9905250869466053</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9747413938928121</v>
+        <v>0.9743606827954027</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9970091859817701</v>
+        <v>0.9969737891800592</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>856</v>
@@ -3491,19 +3491,19 @@
         <v>902878</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>891356</v>
+        <v>892112</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>910994</v>
+        <v>911073</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9774479613971979</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9649739474845738</v>
+        <v>0.9657924859695738</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9862341658289726</v>
+        <v>0.9863190627454321</v>
       </c>
     </row>
     <row r="6">
@@ -3595,19 +3595,19 @@
         <v>9866</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4732</v>
+        <v>4924</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17433</v>
+        <v>18167</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01810620031065593</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008684325216964843</v>
+        <v>0.009036469535609442</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0319937331958903</v>
+        <v>0.03334127895103371</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3616,19 +3616,19 @@
         <v>4620</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1746</v>
+        <v>1762</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10988</v>
+        <v>9582</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01416602087465587</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005354911120946521</v>
+        <v>0.005401365840353421</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03369076202674368</v>
+        <v>0.02938090217052336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -3637,19 +3637,19 @@
         <v>14486</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8481</v>
+        <v>8456</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24697</v>
+        <v>24672</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01663090466348379</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009737088757249452</v>
+        <v>0.009708197026969172</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02835456685107545</v>
+        <v>0.02832559718314143</v>
       </c>
     </row>
     <row r="8">
@@ -3666,19 +3666,19 @@
         <v>535022</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>527455</v>
+        <v>526721</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>540156</v>
+        <v>539964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9818937996893441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9680062668041097</v>
+        <v>0.9666587210489664</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9913156747830352</v>
+        <v>0.9909635304643906</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>312</v>
@@ -3687,19 +3687,19 @@
         <v>321509</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>315141</v>
+        <v>316547</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>324383</v>
+        <v>324367</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9858339791253441</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9663092379732565</v>
+        <v>0.9706190978294764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9946450888790535</v>
+        <v>0.9945986341596466</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>830</v>
@@ -3708,19 +3708,19 @@
         <v>856531</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>846320</v>
+        <v>846345</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>862536</v>
+        <v>862561</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9833690953365162</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.971645433148924</v>
+        <v>0.9716744028168586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9902629112427506</v>
+        <v>0.9902918029730308</v>
       </c>
     </row>
     <row r="9">
@@ -3812,19 +3812,19 @@
         <v>7786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3093</v>
+        <v>3797</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15422</v>
+        <v>15130</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01466816593716371</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005827463356606086</v>
+        <v>0.007153218172837577</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02905494087382786</v>
+        <v>0.02850470734991452</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3846,19 +3846,19 @@
         <v>7786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3078</v>
+        <v>3499</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14187</v>
+        <v>13863</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009467879804053636</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00374340286431751</v>
+        <v>0.00425454685818932</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01725200881469565</v>
+        <v>0.01685751692178167</v>
       </c>
     </row>
     <row r="11">
@@ -3875,19 +3875,19 @@
         <v>523008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>515372</v>
+        <v>515664</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>527701</v>
+        <v>526997</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9853318340628363</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9709450591261721</v>
+        <v>0.9714952926500854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9941725366433939</v>
+        <v>0.9928467818271624</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>276</v>
@@ -3909,19 +3909,19 @@
         <v>814549</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>808148</v>
+        <v>808472</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>819257</v>
+        <v>818836</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9905321201959464</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9827479911853045</v>
+        <v>0.9831424830782182</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.996256597135683</v>
+        <v>0.9957454531418103</v>
       </c>
     </row>
     <row r="12">
@@ -4013,19 +4013,19 @@
         <v>6887</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15322</v>
+        <v>14805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02158851841139744</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009059478508456807</v>
+        <v>0.009067263231154365</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0480279933536366</v>
+        <v>0.04640605310092122</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4034,19 +4034,19 @@
         <v>4001</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1033</v>
+        <v>954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10207</v>
+        <v>9126</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02124568219654873</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005486500489967612</v>
+        <v>0.005068721290015029</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05420464732430659</v>
+        <v>0.04846391024729163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -4055,19 +4055,19 @@
         <v>10888</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19974</v>
+        <v>20591</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02146126588599204</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01144464205814919</v>
+        <v>0.01143886196494</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03937012975028972</v>
+        <v>0.04058786838734928</v>
       </c>
     </row>
     <row r="14">
@@ -4084,19 +4084,19 @@
         <v>312134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>303699</v>
+        <v>304216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>316131</v>
+        <v>316128</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9784114815886026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9519720066463645</v>
+        <v>0.9535939468990797</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9909405214915432</v>
+        <v>0.9909327367688456</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>171</v>
@@ -4105,19 +4105,19 @@
         <v>184308</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>178102</v>
+        <v>179183</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187276</v>
+        <v>187355</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9787543178034512</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9457953526756945</v>
+        <v>0.951536089752708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9945134995100324</v>
+        <v>0.994931278709985</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>464</v>
@@ -4126,19 +4126,19 @@
         <v>496442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>487356</v>
+        <v>486739</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>501524</v>
+        <v>501527</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9785387341140079</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9606298702497105</v>
+        <v>0.9594121316126506</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9885553579418509</v>
+        <v>0.9885611380350598</v>
       </c>
     </row>
     <row r="15">
@@ -4230,19 +4230,19 @@
         <v>42235</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29791</v>
+        <v>30361</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56918</v>
+        <v>57088</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02125035972781627</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01498915980814757</v>
+        <v>0.01527598841174035</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02863830286502797</v>
+        <v>0.02872368250196374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -4251,19 +4251,19 @@
         <v>11756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6482</v>
+        <v>6727</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20239</v>
+        <v>20417</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01034052476772795</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005701752969956744</v>
+        <v>0.005916651421307315</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01780158031972919</v>
+        <v>0.0179584604103814</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -4272,19 +4272,19 @@
         <v>53991</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39405</v>
+        <v>40513</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69799</v>
+        <v>69265</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01728049920806682</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01261216472161185</v>
+        <v>0.01296657854781257</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02234005155877144</v>
+        <v>0.02216921173292627</v>
       </c>
     </row>
     <row r="17">
@@ -4301,19 +4301,19 @@
         <v>1945256</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1930573</v>
+        <v>1930403</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1957700</v>
+        <v>1957130</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9787496402721837</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9713616971349721</v>
+        <v>0.9712763174980363</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9850108401918525</v>
+        <v>0.9847240115882597</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1075</v>
@@ -4322,19 +4322,19 @@
         <v>1125145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1116662</v>
+        <v>1116484</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1130419</v>
+        <v>1130174</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.989659475232272</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9821984196802707</v>
+        <v>0.9820415395896185</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9942982470300432</v>
+        <v>0.9940833485786927</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2917</v>
@@ -4343,19 +4343,19 @@
         <v>3070401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3054593</v>
+        <v>3055127</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3084987</v>
+        <v>3083879</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9827195007919332</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9776599484412286</v>
+        <v>0.9778307882670735</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9873878352783881</v>
+        <v>0.9870334214521873</v>
       </c>
     </row>
     <row r="18">
@@ -4687,19 +4687,19 @@
         <v>8053</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3855</v>
+        <v>3996</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14581</v>
+        <v>14448</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03763436785535555</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01801698345573866</v>
+        <v>0.01867657084926063</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06814339854243444</v>
+        <v>0.06752130524881969</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4708,19 +4708,19 @@
         <v>2268</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5540</v>
+        <v>5945</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01951371565453001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005691751677012235</v>
+        <v>0.00587855105513163</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04766704623424578</v>
+        <v>0.05115729226687781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4729,19 +4729,19 @@
         <v>10320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5974</v>
+        <v>5608</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17354</v>
+        <v>16499</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03125646551315157</v>
+        <v>0.03125646551315156</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01809390511024941</v>
+        <v>0.01698553617548079</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05255794026549981</v>
+        <v>0.04996897905610936</v>
       </c>
     </row>
     <row r="5">
@@ -4758,19 +4758,19 @@
         <v>205917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>199389</v>
+        <v>199522</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>210115</v>
+        <v>209974</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9623656321446445</v>
+        <v>0.9623656321446444</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9318566014575659</v>
+        <v>0.9324786947511801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9819830165442617</v>
+        <v>0.981323429150739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>147</v>
@@ -4779,19 +4779,19 @@
         <v>113947</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110675</v>
+        <v>110270</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>115554</v>
+        <v>115532</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.98048628434547</v>
+        <v>0.9804862843454699</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9523329537657546</v>
+        <v>0.9488427077331221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9943082483229878</v>
+        <v>0.9941214489448682</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>337</v>
@@ -4800,19 +4800,19 @@
         <v>319865</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>312831</v>
+        <v>313686</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>324211</v>
+        <v>324577</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9687435344868486</v>
+        <v>0.9687435344868485</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9474420597345005</v>
+        <v>0.9500310209438905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9819060948897507</v>
+        <v>0.983014463824519</v>
       </c>
     </row>
     <row r="6">
@@ -4904,19 +4904,19 @@
         <v>10026</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4274</v>
+        <v>3990</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21676</v>
+        <v>22559</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02188847820227222</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009329830126746879</v>
+        <v>0.008710075518088107</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0473212610461835</v>
+        <v>0.04924903644719016</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4925,19 +4925,19 @@
         <v>2499</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>555</v>
+        <v>695</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6092</v>
+        <v>6638</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01022609373255867</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002269477953343305</v>
+        <v>0.002843563295317461</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02493373645119351</v>
+        <v>0.02716559615695258</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -4946,19 +4946,19 @@
         <v>12525</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6027</v>
+        <v>6373</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23743</v>
+        <v>23537</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01783156759889451</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008580690111089903</v>
+        <v>0.009072886350426442</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03380289918364634</v>
+        <v>0.0335089618269781</v>
       </c>
     </row>
     <row r="8">
@@ -4975,19 +4975,19 @@
         <v>448038</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>436388</v>
+        <v>435505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>453790</v>
+        <v>454074</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9781115217977279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9526787389538164</v>
+        <v>0.9507509635528102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9906701698732531</v>
+        <v>0.9912899244819119</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>311</v>
@@ -4996,19 +4996,19 @@
         <v>241842</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>238249</v>
+        <v>237703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>243786</v>
+        <v>243646</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9897739062674414</v>
+        <v>0.9897739062674413</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9750662635488069</v>
+        <v>0.9728344038430478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9977305220466566</v>
+        <v>0.9971564367046825</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>732</v>
@@ -5017,19 +5017,19 @@
         <v>689880</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>678662</v>
+        <v>678868</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>696378</v>
+        <v>696032</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9821684324011055</v>
+        <v>0.9821684324011057</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9661971008163537</v>
+        <v>0.966491038173022</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9914193098889098</v>
+        <v>0.9909271136495735</v>
       </c>
     </row>
     <row r="9">
@@ -5121,19 +5121,19 @@
         <v>10005</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4417</v>
+        <v>4864</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18875</v>
+        <v>19839</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01978143498255139</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008733447902702142</v>
+        <v>0.009616542644076515</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03731838338056952</v>
+        <v>0.03922551578028378</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5142,19 +5142,19 @@
         <v>5718</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2175</v>
+        <v>1954</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15320</v>
+        <v>13523</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02140313427638892</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00814162045142431</v>
+        <v>0.0073130583541983</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05734780146231349</v>
+        <v>0.05061944057971787</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -5163,19 +5163,19 @@
         <v>15723</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8447</v>
+        <v>8493</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26629</v>
+        <v>27987</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02034193616262686</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01092873254186514</v>
+        <v>0.01098865342168711</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03445257458152651</v>
+        <v>0.03620912006571086</v>
       </c>
     </row>
     <row r="11">
@@ -5192,19 +5192,19 @@
         <v>495773</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>486903</v>
+        <v>485939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>501361</v>
+        <v>500914</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9802185650174486</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9626816166194303</v>
+        <v>0.9607744842197163</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9912665520972977</v>
+        <v>0.9903834573559236</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>363</v>
@@ -5213,19 +5213,19 @@
         <v>261423</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251821</v>
+        <v>253618</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>264966</v>
+        <v>265187</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9785968657236112</v>
+        <v>0.978596865723611</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9426521985376864</v>
+        <v>0.9493805594202821</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9918583795485757</v>
+        <v>0.9926869416458017</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>851</v>
@@ -5234,19 +5234,19 @@
         <v>757195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>746289</v>
+        <v>744931</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>764471</v>
+        <v>764425</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.979658063837373</v>
+        <v>0.9796580638373731</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9655474254184733</v>
+        <v>0.963790879934289</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9890712674581346</v>
+        <v>0.9890113465783128</v>
       </c>
     </row>
     <row r="12">
@@ -5338,19 +5338,19 @@
         <v>6629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2689</v>
+        <v>2716</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14050</v>
+        <v>13862</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01371517451914227</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005564216194139783</v>
+        <v>0.005618779514526032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02907036340267639</v>
+        <v>0.0286802430677671</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -5359,19 +5359,19 @@
         <v>6660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2129</v>
+        <v>2461</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15788</v>
+        <v>15196</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02476270525516835</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007916419636919615</v>
+        <v>0.009149977607518836</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05869983634008965</v>
+        <v>0.05649686633656587</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -5380,19 +5380,19 @@
         <v>13289</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6853</v>
+        <v>7151</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23798</v>
+        <v>23477</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01766504155282342</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009109274691680229</v>
+        <v>0.009505597581433812</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03163459645798057</v>
+        <v>0.03120750959064695</v>
       </c>
     </row>
     <row r="14">
@@ -5409,19 +5409,19 @@
         <v>476685</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>469264</v>
+        <v>469452</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>480625</v>
+        <v>480598</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9862848254808577</v>
+        <v>0.9862848254808576</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9709296365973236</v>
+        <v>0.971319756932233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9944357838058602</v>
+        <v>0.9943812204854739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>353</v>
@@ -5430,19 +5430,19 @@
         <v>262305</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>253177</v>
+        <v>253769</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>266836</v>
+        <v>266504</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9752372947448318</v>
+        <v>0.9752372947448316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.941300163659911</v>
+        <v>0.9435031336634341</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9920835803630805</v>
+        <v>0.9908500223924812</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>795</v>
@@ -5451,19 +5451,19 @@
         <v>738990</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>728481</v>
+        <v>728802</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>745426</v>
+        <v>745128</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9823349584471766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9683654035420195</v>
+        <v>0.968792490409353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9908907253083199</v>
+        <v>0.9904944024185663</v>
       </c>
     </row>
     <row r="15">
@@ -5555,19 +5555,19 @@
         <v>34713</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23534</v>
+        <v>23549</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50405</v>
+        <v>51056</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02089709111307473</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01416745036013796</v>
+        <v>0.01417677682532536</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03034370896578864</v>
+        <v>0.03073566677299864</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -5576,19 +5576,19 @@
         <v>17144</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9910</v>
+        <v>10687</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28902</v>
+        <v>28616</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01912024872177061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01105224526127685</v>
+        <v>0.01191826557873045</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03223265092003377</v>
+        <v>0.03191356786253947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -5597,19 +5597,19 @@
         <v>51857</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38315</v>
+        <v>38281</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69057</v>
+        <v>68898</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02027419895744778</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01497970917050019</v>
+        <v>0.01496629279811967</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02699873613050617</v>
+        <v>0.02693658868108399</v>
       </c>
     </row>
     <row r="17">
@@ -5626,19 +5626,19 @@
         <v>1626413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1610721</v>
+        <v>1610070</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1637592</v>
+        <v>1637577</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9791029088869253</v>
+        <v>0.9791029088869251</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9696562910342114</v>
+        <v>0.9692643332270015</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9858325496398619</v>
+        <v>0.9858232231746747</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1174</v>
@@ -5647,19 +5647,19 @@
         <v>879517</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>867759</v>
+        <v>868045</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>886751</v>
+        <v>885974</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9808797512782295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9677673490799661</v>
+        <v>0.9680864321374607</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9889477547387231</v>
+        <v>0.9880817344212697</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2715</v>
@@ -5668,19 +5668,19 @@
         <v>2505930</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2488730</v>
+        <v>2488889</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2519472</v>
+        <v>2519506</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9797258010425522</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9730012638694938</v>
+        <v>0.9730634113189158</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9850202908294998</v>
+        <v>0.9850337072018802</v>
       </c>
     </row>
     <row r="18">
